--- a/Assets/StreamingAssets/2_Training.xlsx
+++ b/Assets/StreamingAssets/2_Training.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49572930-929C-0C44-B857-7CE6D4E3FB10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D57E545-8865-9845-8AA8-3186A9BCF080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28100" windowHeight="15820" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
@@ -166,10 +166,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Master, this young lady’s skills seem quite impressive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Yao-Astonished</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -178,14 +174,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Yaochong, you’re being too hasty.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Look at the way she swings the weapon—when it cuts through the air like a feather, it means she’s not applying power correctly.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The force isn’t coming from the waist, but is simply brute strength from the arms.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -197,10 +185,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I see. Master, you’re amazing—you can spot these details just from a few moves.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Yao-Regular</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -217,10 +201,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>May I ask the young lady’s name?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Chen</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -233,22 +213,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I’m Li Chen, the best martial artist in this entire manor.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Chen-Smile3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>My apologies, Miss Li—you must be the top disciple of the manor.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>top disciple? That’s only because there are just two guards left in Qingliu Manor now.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Chen-Smile2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -269,18 +237,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Enough chatting—who are you anyway?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Chen-Regular</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I’m Di Renjie, and this is my page, Yao Chong.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>We came from Luoyang and passed through here on our way to Pengze County.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -325,18 +285,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hello</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ran-Regular</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hello—may I ask if you’re a physician?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ran</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -349,14 +301,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I practice medicine in the town at the foot of the mountain. I came up a few days ago for a consultation.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Are you familiar with the manor’s master?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -397,10 +341,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Nice to meet you, we are—</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Lai-Regular</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -417,10 +357,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Master…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Yao-Sad</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -449,6 +385,70 @@
   </si>
   <si>
     <t>Ladder1</t>
+  </si>
+  <si>
+    <t>Yao, you’re being too hasty.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I’m Chen, the best martial artist in this entire manor.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nice to meet you, we are——</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sir......</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sir, this young lady’s skills seem quite impressive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Look at the way she swings the weapon——when it cuts through the air like a feather, it means she’s not applying power correctly.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I see. You’re amazing——you can spot these details just from a few moves.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>May I ask your name please?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>My apologies, you must be the top disciple of the manor.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Top disciple? That’s only because there are just two guards left in Qingliu Manor now.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enough chatting——who are you anyway?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I’m Judge Dee, and this is my student, Yao.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hello!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hello——may I ask if you’re a physician?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I practice medicine in JiuJiang county at the foot of the mountain. I came up a few days ago for a consultation.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Are you familiar with the Lord?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -877,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EEC272-F350-D34D-A243-3179172F76FB}">
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -945,13 +945,13 @@
     </row>
     <row r="2" spans="1:16" ht="34">
       <c r="B2" s="1" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="F2" t="s">
         <v>26</v>
@@ -959,24 +959,24 @@
     </row>
     <row r="3" spans="1:16" ht="34">
       <c r="B3" s="1" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="34">
       <c r="B4" s="1" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="17">
@@ -993,7 +993,7 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>23</v>
@@ -1011,31 +1011,29 @@
         <v>0</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="17">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
@@ -1044,16 +1042,16 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -1065,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="34">
@@ -1073,7 +1071,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -1082,7 +1080,7 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -1096,7 +1094,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -1105,18 +1103,22 @@
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>102</v>
-      </c>
-      <c r="G9" s="3"/>
+        <v>86</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="2"/>
+      <c r="J9" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:16" ht="51">
       <c r="B10" s="1" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
@@ -1161,10 +1163,10 @@
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" t="s">
         <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
@@ -1182,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="17">
@@ -1190,7 +1192,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -1213,7 +1215,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -1236,10 +1238,10 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
@@ -1259,10 +1261,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
@@ -1282,10 +1284,10 @@
         <v>2</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
@@ -1298,15 +1300,13 @@
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" ht="34">
       <c r="B19" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s">
         <v>15</v>
@@ -1321,12 +1321,12 @@
         <v>500</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="34">
       <c r="B20" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
         <v>15</v>
@@ -1343,7 +1343,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
@@ -1360,13 +1360,13 @@
     </row>
     <row r="22" spans="1:12" ht="17">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D22" t="s">
         <v>15</v>
@@ -1380,13 +1380,13 @@
     </row>
     <row r="23" spans="1:12" ht="17">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D23" t="s">
         <v>15</v>
@@ -1403,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="C24" t="s">
         <v>16</v>
@@ -1420,13 +1420,13 @@
     </row>
     <row r="25" spans="1:12" ht="34">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
@@ -1442,7 +1442,7 @@
     </row>
     <row r="26" spans="1:12" ht="34">
       <c r="B26" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D26" t="s">
         <v>15</v>
@@ -1454,7 +1454,7 @@
     <row r="27" spans="1:12" ht="51">
       <c r="A27" s="4"/>
       <c r="B27" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5" t="s">
@@ -1475,10 +1475,10 @@
         <v>1</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D28" t="s">
         <v>15</v>
@@ -1498,13 +1498,13 @@
     </row>
     <row r="29" spans="1:12" ht="17">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D29" t="s">
         <v>15</v>
@@ -1522,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="17">
@@ -1530,7 +1530,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
@@ -1553,7 +1553,7 @@
         <v>1</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C31" t="s">
         <v>14</v>
@@ -1573,13 +1573,13 @@
     </row>
     <row r="32" spans="1:12" ht="34">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D32" t="s">
         <v>15</v>
@@ -1596,13 +1596,13 @@
     </row>
     <row r="33" spans="1:12" ht="17">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C33" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D33" t="s">
         <v>15</v>
@@ -1619,7 +1619,7 @@
     </row>
     <row r="34" spans="1:12" ht="34">
       <c r="B34" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="35" spans="1:12" ht="34">
       <c r="B35" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D35" t="s">
         <v>15</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="36" spans="1:12" ht="34">
       <c r="B36" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D36" t="s">
         <v>15</v>
@@ -1668,52 +1668,52 @@
     </row>
     <row r="37" spans="1:12" ht="34">
       <c r="B37" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D37" t="s">
         <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="34">
       <c r="B38" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D38" t="s">
         <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="34">
       <c r="B39" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D39" t="s">
         <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="17">
       <c r="A40" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="C40" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D40" t="s">
         <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>23</v>
@@ -1722,7 +1722,7 @@
         <v>500</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="17">
@@ -1730,7 +1730,7 @@
         <v>1</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="C41" t="s">
         <v>14</v>
@@ -1739,7 +1739,7 @@
         <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
@@ -1747,19 +1747,19 @@
     </row>
     <row r="42" spans="1:12" ht="17">
       <c r="A42" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C42" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="D42" t="s">
         <v>15</v>
       </c>
       <c r="E42" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
@@ -1767,19 +1767,19 @@
     </row>
     <row r="43" spans="1:12" ht="34">
       <c r="A43" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="C43" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="D43" t="s">
         <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
@@ -1790,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="C44" t="s">
         <v>14</v>
@@ -1799,7 +1799,7 @@
         <v>15</v>
       </c>
       <c r="E44" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
@@ -1807,19 +1807,19 @@
     </row>
     <row r="45" spans="1:12" ht="17">
       <c r="A45" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C45" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="D45" t="s">
         <v>15</v>
       </c>
       <c r="E45" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
@@ -1830,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C46" t="s">
         <v>14</v>
@@ -1839,7 +1839,7 @@
         <v>15</v>
       </c>
       <c r="E46" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
@@ -1847,19 +1847,19 @@
     </row>
     <row r="47" spans="1:12" ht="17">
       <c r="A47" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C47" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="D47" t="s">
         <v>15</v>
       </c>
       <c r="E47" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
@@ -1867,13 +1867,13 @@
     </row>
     <row r="48" spans="1:12" ht="34">
       <c r="B48" s="1" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="D48" t="s">
         <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>17</v>
@@ -1889,7 +1889,7 @@
         <v>15</v>
       </c>
       <c r="E49" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="17">
@@ -1900,10 +1900,10 @@
         <v>27</v>
       </c>
       <c r="C50" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="E50" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="17">
@@ -1911,10 +1911,10 @@
         <v>22</v>
       </c>
       <c r="C51" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="E51" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/2_Training.xlsx
+++ b/Assets/StreamingAssets/2_Training.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D57E545-8865-9845-8AA8-3186A9BCF080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1353BFE-F940-8245-ACCA-AD37628716A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28100" windowHeight="15820" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="103">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -342,10 +342,6 @@
   </si>
   <si>
     <t>Lai-Regular</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stranger</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -878,7 +874,7 @@
   <dimension ref="A1:P51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -976,7 +972,7 @@
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="17">
@@ -984,7 +980,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -993,7 +989,7 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>23</v>
@@ -1016,19 +1012,19 @@
     </row>
     <row r="6" spans="1:16" ht="17">
       <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" t="s">
         <v>78</v>
       </c>
-      <c r="C6" t="s">
-        <v>79</v>
-      </c>
       <c r="D6" t="s">
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -1042,16 +1038,16 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -1063,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="34">
@@ -1071,7 +1067,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -1080,7 +1076,7 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -1094,7 +1090,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -1103,7 +1099,7 @@
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>17</v>
@@ -1163,7 +1159,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C13" t="s">
         <v>32</v>
@@ -1192,7 +1188,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -1215,7 +1211,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -1284,7 +1280,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C18" t="s">
         <v>37</v>
@@ -1343,7 +1339,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
@@ -1383,7 +1379,7 @@
         <v>41</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C23" t="s">
         <v>44</v>
@@ -1403,7 +1399,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C24" t="s">
         <v>16</v>
@@ -1423,7 +1419,7 @@
         <v>41</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C25" t="s">
         <v>45</v>
@@ -1501,7 +1497,7 @@
         <v>41</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C29" t="s">
         <v>45</v>
@@ -1530,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
@@ -1685,7 +1681,7 @@
         <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="34">
@@ -1696,7 +1692,7 @@
         <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="17">
@@ -1704,7 +1700,7 @@
         <v>71</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C40" t="s">
         <v>62</v>
@@ -1713,7 +1709,7 @@
         <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>23</v>
@@ -1730,7 +1726,7 @@
         <v>1</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C41" t="s">
         <v>14</v>
@@ -1739,7 +1735,7 @@
         <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
@@ -1759,7 +1755,7 @@
         <v>15</v>
       </c>
       <c r="E42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
@@ -1770,7 +1766,7 @@
         <v>63</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C43" t="s">
         <v>65</v>
@@ -1779,7 +1775,7 @@
         <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
@@ -1790,7 +1786,7 @@
         <v>1</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C44" t="s">
         <v>14</v>
@@ -1799,7 +1795,7 @@
         <v>15</v>
       </c>
       <c r="E44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
@@ -1819,7 +1815,7 @@
         <v>15</v>
       </c>
       <c r="E45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
@@ -1839,7 +1835,7 @@
         <v>15</v>
       </c>
       <c r="E46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
@@ -1859,7 +1855,7 @@
         <v>15</v>
       </c>
       <c r="E47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
@@ -1873,7 +1869,7 @@
         <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>17</v>
@@ -1889,7 +1885,7 @@
         <v>15</v>
       </c>
       <c r="E49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="17">
@@ -1900,10 +1896,10 @@
         <v>27</v>
       </c>
       <c r="C50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="17">
@@ -1911,10 +1907,10 @@
         <v>22</v>
       </c>
       <c r="C51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/2_Training.xlsx
+++ b/Assets/StreamingAssets/2_Training.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1353BFE-F940-8245-ACCA-AD37628716A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CCD9C7-8114-4C4C-8DB3-B143DE471C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28100" windowHeight="15820" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
@@ -245,10 +245,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Luoyang, huh? Since it’s the capital, there must be many martial arts masters there.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Chen-Thinking</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -445,6 +441,9 @@
   <si>
     <t>Are you familiar with the Lord?</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Luoyang, huh? Since it’s the capital, there must be many martial arts Lords there.</t>
   </si>
 </sst>
 </file>
@@ -941,13 +940,13 @@
     </row>
     <row r="2" spans="1:16" ht="34">
       <c r="B2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
         <v>72</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>73</v>
       </c>
       <c r="F2" t="s">
         <v>26</v>
@@ -955,24 +954,24 @@
     </row>
     <row r="3" spans="1:16" ht="34">
       <c r="B3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="34">
       <c r="B4" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="17">
@@ -980,7 +979,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -989,7 +988,7 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>23</v>
@@ -1007,24 +1006,24 @@
         <v>0</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="17">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" t="s">
         <v>77</v>
       </c>
-      <c r="C6" t="s">
-        <v>78</v>
-      </c>
       <c r="D6" t="s">
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -1038,16 +1037,16 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -1059,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="34">
@@ -1067,7 +1066,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -1076,7 +1075,7 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -1090,7 +1089,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -1099,7 +1098,7 @@
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>17</v>
@@ -1114,7 +1113,7 @@
     </row>
     <row r="10" spans="1:16" ht="51">
       <c r="B10" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
@@ -1159,7 +1158,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
         <v>32</v>
@@ -1188,7 +1187,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -1211,7 +1210,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -1280,7 +1279,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C18" t="s">
         <v>37</v>
@@ -1339,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
@@ -1356,7 +1355,7 @@
     </row>
     <row r="22" spans="1:12" ht="17">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>42</v>
@@ -1379,7 +1378,7 @@
         <v>41</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C23" t="s">
         <v>44</v>
@@ -1399,7 +1398,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C24" t="s">
         <v>16</v>
@@ -1419,7 +1418,7 @@
         <v>41</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C25" t="s">
         <v>45</v>
@@ -1497,7 +1496,7 @@
         <v>41</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C29" t="s">
         <v>45</v>
@@ -1526,7 +1525,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
@@ -1572,10 +1571,10 @@
         <v>41</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" t="s">
         <v>52</v>
-      </c>
-      <c r="C32" t="s">
-        <v>53</v>
       </c>
       <c r="D32" t="s">
         <v>15</v>
@@ -1595,7 +1594,7 @@
         <v>41</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C33" t="s">
         <v>45</v>
@@ -1615,7 +1614,7 @@
     </row>
     <row r="34" spans="1:12" ht="34">
       <c r="B34" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
@@ -1634,7 +1633,7 @@
     </row>
     <row r="35" spans="1:12" ht="34">
       <c r="B35" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D35" t="s">
         <v>15</v>
@@ -1648,7 +1647,7 @@
     </row>
     <row r="36" spans="1:12" ht="34">
       <c r="B36" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D36" t="s">
         <v>15</v>
@@ -1664,52 +1663,52 @@
     </row>
     <row r="37" spans="1:12" ht="34">
       <c r="B37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" t="s">
         <v>58</v>
-      </c>
-      <c r="D37" t="s">
-        <v>15</v>
-      </c>
-      <c r="E37" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="34">
       <c r="B38" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D38" t="s">
         <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="34">
       <c r="B39" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D39" t="s">
         <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="17">
       <c r="A40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D40" t="s">
         <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>23</v>
@@ -1718,7 +1717,7 @@
         <v>500</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="17">
@@ -1726,7 +1725,7 @@
         <v>1</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C41" t="s">
         <v>14</v>
@@ -1735,7 +1734,7 @@
         <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
@@ -1743,19 +1742,19 @@
     </row>
     <row r="42" spans="1:12" ht="17">
       <c r="A42" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" t="s">
         <v>64</v>
       </c>
-      <c r="C42" t="s">
-        <v>65</v>
-      </c>
       <c r="D42" t="s">
         <v>15</v>
       </c>
       <c r="E42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
@@ -1763,19 +1762,19 @@
     </row>
     <row r="43" spans="1:12" ht="34">
       <c r="A43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D43" t="s">
         <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
@@ -1786,7 +1785,7 @@
         <v>1</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C44" t="s">
         <v>14</v>
@@ -1795,7 +1794,7 @@
         <v>15</v>
       </c>
       <c r="E44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
@@ -1803,19 +1802,19 @@
     </row>
     <row r="45" spans="1:12" ht="17">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D45" t="s">
         <v>15</v>
       </c>
       <c r="E45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
@@ -1826,7 +1825,7 @@
         <v>1</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C46" t="s">
         <v>14</v>
@@ -1835,7 +1834,7 @@
         <v>15</v>
       </c>
       <c r="E46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
@@ -1843,19 +1842,19 @@
     </row>
     <row r="47" spans="1:12" ht="17">
       <c r="A47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D47" t="s">
         <v>15</v>
       </c>
       <c r="E47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
@@ -1863,13 +1862,13 @@
     </row>
     <row r="48" spans="1:12" ht="34">
       <c r="B48" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D48" t="s">
         <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>17</v>
@@ -1885,7 +1884,7 @@
         <v>15</v>
       </c>
       <c r="E49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="17">
@@ -1896,10 +1895,10 @@
         <v>27</v>
       </c>
       <c r="C50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E50" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="17">
@@ -1907,10 +1906,10 @@
         <v>22</v>
       </c>
       <c r="C51" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
